--- a/gameconf/rpg/enemy.xlsx
+++ b/gameconf/rpg/enemy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="14175" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="敌人表" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>精英</t>
+  </si>
+  <si>
+    <t>1:5|2:5</t>
   </si>
   <si>
     <t>Id</t>
@@ -746,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,6 +757,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,8 +1075,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1154,7 +1160,9 @@
       <c r="E4" s="2">
         <v>10000</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1175,10 +1183,10 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
@@ -1191,10 +1199,10 @@
     </row>
     <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1208,7 +1216,7 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1219,12 +1227,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/gameconf/rpg/enemy.xlsx
+++ b/gameconf/rpg/enemy.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -43,12 +43,21 @@
     <t>Health</t>
   </si>
   <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
     <t>Mana</t>
   </si>
   <si>
+    <t>MaxMana</t>
+  </si>
+  <si>
     <t>Intents</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
@@ -76,19 +85,31 @@
     <t>怪物生命</t>
   </si>
   <si>
+    <t>生命上限</t>
+  </si>
+  <si>
     <t>怪物魔力</t>
   </si>
   <si>
+    <t>魔力上限</t>
+  </si>
+  <si>
     <t>怪物意图</t>
   </si>
   <si>
+    <t>怪物状态</t>
+  </si>
+  <si>
     <t>鸡王</t>
   </si>
   <si>
-    <t>精英</t>
+    <t>怪物类型-精英</t>
   </si>
   <si>
     <t>1:5|2:5</t>
+  </si>
+  <si>
+    <t>状态-存活</t>
   </si>
   <si>
     <t>Id</t>
@@ -1073,18 +1094,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="3" max="3" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:6">
+    <row r="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,65 +1124,101 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="14.25" spans="1:6">
+    <row r="2" ht="14.25" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" ht="14.25" spans="1:6">
+    <row r="3" ht="14.25" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
         <v>3000</v>
       </c>
       <c r="E4" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="2">
         <v>10000</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
+      <c r="G4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1183,26 +1240,26 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1227,12 +1284,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
